--- a/xlsx/下加利福尼亚半岛_intext.xlsx
+++ b/xlsx/下加利福尼亚半岛_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>蒂華納</t>
+    <t>蒂华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>加利福尼亞灣</t>
+    <t>加利福尼亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>下加利福尼亞州</t>
+    <t>下加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>南下加利福尼亞州</t>
+    <t>南下加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9C%B0%E7%90%86</t>
